--- a/data_analyzed/Distance (miles)/Distance (miles)_trainings_pregame.xlsx
+++ b/data_analyzed/Distance (miles)/Distance (miles)_trainings_pregame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,112 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -485,28 +555,62 @@
         <v>44803</v>
       </c>
       <c r="B2" t="n">
+        <v>3.7702</v>
+      </c>
+      <c r="C2" t="n">
         <v>3.5017</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3.7225</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4.2893</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.4326</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.3586</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>3.6899</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6008</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>3.9427</v>
+      </c>
+      <c r="M2" t="n">
         <v>4.1038</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>4.2551</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.6064</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
+        <v>3.6876</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.5987</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>3.6262</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>4.2828</v>
+      </c>
+      <c r="V2" t="n">
         <v>3.7954</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.3294</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +618,68 @@
         <v>44807</v>
       </c>
       <c r="B3" t="n">
+        <v>2.8984</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.3147</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.6977</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>1.7114</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3936</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.559</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
+        <v>2.1728</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.3316</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.6503</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.3331</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.8072</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
+        <v>2.3012</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.7648</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>1.9123</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.0339</v>
       </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
+        <v>2.6011</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.7599</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>2.4253</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.0448</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.2357</v>
       </c>
     </row>
     <row r="4">
@@ -543,83 +687,195 @@
         <v>44812</v>
       </c>
       <c r="B4" t="n">
+        <v>3.1076</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.5512</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2.6238</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.6183</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.2772</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>3.2636</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1381</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.8067</v>
+      </c>
+      <c r="M4" t="n">
         <v>3.6149</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>3.0526</v>
+      </c>
+      <c r="O4" t="n">
         <v>3.913</v>
       </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
+        <v>3.0377</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.8756</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
+        <v>3.1682</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.1551</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>3.7154</v>
+      </c>
+      <c r="V4" t="n">
         <v>3.0091</v>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44819</v>
       </c>
       <c r="B5" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.5587</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1.5596</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.1613</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2181</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.1635</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>2.3426</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3795</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1696</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.8492</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.9072</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
+        <v>2.9156</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.7582</v>
       </c>
-      <c r="G5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>2.6653</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
+        <v>2.4971</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.7622</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
+        <v>1.2709</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.0247</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.6411</v>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44821</v>
       </c>
       <c r="B6" t="n">
+        <v>2.7425</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.1367</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1.0674</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5891</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.7828</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.1273</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>2.5152</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.5082</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8742</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.6764</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.3475</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
+        <v>1.8795</v>
+      </c>
+      <c r="O6" t="n">
         <v>2.7213</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>1.9802</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
+        <v>2.1594</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.9253</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>1.0585</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>1.8846</v>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
